--- a/TeplosilaWeb/Content/properties/gtrv3.xlsx
+++ b/TeplosilaWeb/Content/properties/gtrv3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Документы\Временные файлы\ТЗ программа подбора TRV, RDT\ТЗ клапаны\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\CSharp\TeploSila_RDT\TeploSila_RDT\TeploSila_2\bin\Debug\properties\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -475,7 +475,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,22 +672,22 @@
         <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="D7" s="2">
-        <v>316.5</v>
+        <v>305</v>
       </c>
       <c r="E7" s="2">
-        <v>321.5</v>
+        <v>310</v>
       </c>
       <c r="F7" s="2">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="G7" s="2">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="H7" s="2">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="C8" s="2">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="D8" s="2">
-        <v>316.5</v>
+        <v>305</v>
       </c>
       <c r="E8" s="2">
-        <v>321.5</v>
+        <v>310</v>
       </c>
       <c r="F8" s="2">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="G8" s="2">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="H8" s="2">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -734,19 +734,19 @@
         <v>9</v>
       </c>
       <c r="C9" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D9" s="2">
-        <v>335.5</v>
+        <v>340</v>
       </c>
       <c r="E9" s="2">
-        <v>340.5</v>
+        <v>345</v>
       </c>
       <c r="F9" s="2">
-        <v>343.5</v>
+        <v>347</v>
       </c>
       <c r="G9" s="2">
-        <v>352.5</v>
+        <v>355</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -763,19 +763,19 @@
         <v>10</v>
       </c>
       <c r="C10" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D10" s="2">
-        <v>335.5</v>
+        <v>340</v>
       </c>
       <c r="E10" s="2">
-        <v>340.5</v>
+        <v>345</v>
       </c>
       <c r="F10" s="2">
-        <v>343.5</v>
+        <v>347</v>
       </c>
       <c r="G10" s="2">
-        <v>352.5</v>
+        <v>355</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -804,7 +804,7 @@
         <v>410</v>
       </c>
       <c r="K11" s="2">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -829,7 +829,7 @@
         <v>410</v>
       </c>
       <c r="K12" s="2">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -851,10 +851,10 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2">
-        <v>705</v>
+        <v>660</v>
       </c>
       <c r="M13" s="2">
-        <v>842</v>
+        <v>660</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -870,22 +870,22 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2">
-        <v>378.5</v>
+        <v>365</v>
       </c>
       <c r="I14" s="2">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="J14" s="2">
-        <v>445</v>
+        <v>415</v>
       </c>
       <c r="K14" s="2">
-        <v>465</v>
+        <v>430</v>
       </c>
       <c r="L14" s="2">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="M14" s="2">
-        <v>545</v>
+        <v>490</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -901,22 +901,22 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2">
-        <v>378.5</v>
+        <v>365</v>
       </c>
       <c r="I15" s="2">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="J15" s="2">
-        <v>445</v>
+        <v>415</v>
       </c>
       <c r="K15" s="2">
-        <v>465</v>
+        <v>430</v>
       </c>
       <c r="L15" s="2">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="M15" s="2">
-        <v>545</v>
+        <v>490</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1125,10 +1125,10 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2">
-        <v>59</v>
+        <v>56.7</v>
       </c>
       <c r="M23" s="2">
-        <v>84.2</v>
+        <v>81.7</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1156,10 +1156,10 @@
         <v>40.5</v>
       </c>
       <c r="L24" s="2">
-        <v>54.8</v>
+        <v>55.2</v>
       </c>
       <c r="M24" s="2">
-        <v>80</v>
+        <v>80.2</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1187,10 +1187,10 @@
         <v>40.5</v>
       </c>
       <c r="L25" s="2">
-        <v>54.8</v>
+        <v>55.2</v>
       </c>
       <c r="M25" s="2">
-        <v>80</v>
+        <v>80.2</v>
       </c>
     </row>
   </sheetData>

--- a/TeplosilaWeb/Content/properties/gtrv3.xlsx
+++ b/TeplosilaWeb/Content/properties/gtrv3.xlsx
@@ -60,9 +60,6 @@
     <t>TW1001-XD24-S.14</t>
   </si>
   <si>
-    <t>ST 0.1 498.1-OIIAF/00</t>
-  </si>
-  <si>
     <t>TW3000-XD220-S.14</t>
   </si>
   <si>
@@ -79,6 +76,9 @@
   </si>
   <si>
     <t>TRV-3</t>
+  </si>
+  <si>
+    <t>TSL-3000-60-1-230-IP67</t>
   </si>
 </sst>
 </file>
@@ -475,7 +475,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,7 +486,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -503,7 +503,7 @@
     </row>
     <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -650,7 +650,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -839,7 +839,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -862,7 +862,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -893,7 +893,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -924,7 +924,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -1113,7 +1113,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1136,7 +1136,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1167,7 +1167,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>

--- a/TeplosilaWeb/Content/properties/gtrv3.xlsx
+++ b/TeplosilaWeb/Content/properties/gtrv3.xlsx
@@ -85,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +117,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -163,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -190,6 +196,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -475,7 +484,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,29 +680,29 @@
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="10">
         <v>300</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="10">
         <v>305</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="10">
         <v>310</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="10">
         <v>310</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="10">
         <v>320</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="10">
         <v>320</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
@@ -702,29 +711,29 @@
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="10">
         <v>300</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="10">
         <v>305</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="10">
         <v>310</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="10">
         <v>310</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="10">
         <v>320</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="10">
         <v>320</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
@@ -733,27 +742,27 @@
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="10">
         <v>330</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="10">
         <v>340</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="10">
         <v>345</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="10">
         <v>347</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="10">
         <v>355</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
@@ -762,27 +771,27 @@
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="10">
         <v>330</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="10">
         <v>340</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="10">
         <v>345</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="10">
         <v>347</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="10">
         <v>355</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
@@ -791,23 +800,23 @@
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10">
         <v>400</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="10">
         <v>410</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="10">
         <v>420</v>
       </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
@@ -816,23 +825,23 @@
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10">
         <v>400</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="10">
         <v>410</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="10">
         <v>420</v>
       </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
@@ -841,20 +850,20 @@
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2">
-        <v>660</v>
-      </c>
-      <c r="M13" s="2">
-        <v>660</v>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10">
+        <v>515</v>
+      </c>
+      <c r="M13" s="10">
+        <v>515</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -864,27 +873,27 @@
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10">
         <v>365</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="10">
         <v>410</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="10">
         <v>415</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="10">
         <v>430</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="10">
         <v>490</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="10">
         <v>490</v>
       </c>
     </row>
@@ -895,27 +904,27 @@
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10">
         <v>365</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="10">
         <v>410</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="10">
         <v>415</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="10">
         <v>430</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="10">
         <v>490</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="10">
         <v>490</v>
       </c>
     </row>
@@ -945,29 +954,29 @@
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="10">
         <v>6.3</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="10">
         <v>7.2</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="10">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="10">
         <v>10.8</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="10">
         <v>12.3</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="10">
         <v>14.8</v>
       </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
@@ -976,29 +985,29 @@
       <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="10">
         <v>6.3</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="10">
         <v>7.2</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="10">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="10">
         <v>10.8</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="10">
         <v>12.3</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="10">
         <v>14.8</v>
       </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
@@ -1007,27 +1016,27 @@
       <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="10">
         <v>6.8</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="10">
         <v>7.7</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="10">
         <v>8.6999999999999993</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="10">
         <v>11.3</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="10">
         <v>12.8</v>
       </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
@@ -1036,27 +1045,27 @@
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="10">
         <v>6.8</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="10">
         <v>7.7</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="10">
         <v>8.6999999999999993</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="10">
         <v>11.3</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="10">
         <v>12.8</v>
       </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
@@ -1065,23 +1074,23 @@
       <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2">
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10">
         <v>25</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="10">
         <v>33</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="10">
         <v>40</v>
       </c>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
@@ -1090,23 +1099,23 @@
       <c r="B22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10">
         <v>25</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="10">
         <v>33</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="10">
         <v>40</v>
       </c>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
@@ -1115,20 +1124,20 @@
       <c r="B23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2">
-        <v>56.7</v>
-      </c>
-      <c r="M23" s="2">
-        <v>81.7</v>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10">
+        <v>55</v>
+      </c>
+      <c r="M23" s="10">
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1138,27 +1147,27 @@
       <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2">
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10">
         <v>15.8</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="10">
         <v>25.5</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="10">
         <v>33.5</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="10">
         <v>40.5</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="10">
         <v>55.2</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M24" s="10">
         <v>80.2</v>
       </c>
     </row>
@@ -1169,27 +1178,27 @@
       <c r="B25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2">
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10">
         <v>15.8</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="10">
         <v>25.5</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="10">
         <v>33.5</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="10">
         <v>40.5</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25" s="10">
         <v>55.2</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M25" s="10">
         <v>80.2</v>
       </c>
     </row>

--- a/TeplosilaWeb/Content/properties/gtrv3.xlsx
+++ b/TeplosilaWeb/Content/properties/gtrv3.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\CSharp\TeploSila_RDT\TeploSila_RDT\TeploSila_2\bin\Debug\properties\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22451d98f477d1d3/Рабочий стол/RDT/TeplosilaWeb/Content/properties/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68BFC5F4-B760-4F97-B9B3-725F11A00ED3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
+    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>Наименование параметров,
 единицы измерения</t>
@@ -79,13 +80,25 @@
   </si>
   <si>
     <t>TSL-3000-60-1-230-IP67</t>
+  </si>
+  <si>
+    <t>TSL-1600-25-1T-230-IP67</t>
+  </si>
+  <si>
+    <t>TSL-1600-25-1TR-230-IP67</t>
+  </si>
+  <si>
+    <t>TSL-2200-40-1T-230-IP67</t>
+  </si>
+  <si>
+    <t>TSL-2200-40-1TR-230-IP67</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +132,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -169,11 +196,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -181,13 +205,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -195,10 +228,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -480,733 +513,957 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-    </row>
-    <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+    </row>
+    <row r="2" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>15</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>20</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>25</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>32</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <v>40</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="3">
         <v>50</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="3">
         <v>65</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="3">
         <v>80</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="3">
         <v>100</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="3">
         <v>125</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="3">
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>130</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>150</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>160</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>180</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>200</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>230</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>290</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>310</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>350</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>400</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <v>480</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>65</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>70</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>75</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>95</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>100</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>100</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>120</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>130</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>150</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>160</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="6">
         <v>300</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="6">
         <v>305</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="6">
         <v>310</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="6">
         <v>310</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="6">
         <v>320</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="6">
         <v>320</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="6">
         <v>300</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="6">
         <v>305</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="6">
         <v>310</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="6">
         <v>310</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="6">
         <v>320</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="6">
         <v>320</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="6">
         <v>330</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="6">
         <v>340</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="6">
         <v>345</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="6">
         <v>347</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="6">
         <v>355</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="6">
         <v>330</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="6">
         <v>340</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="6">
         <v>345</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="6">
         <v>347</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="6">
         <v>355</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6">
         <v>400</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="6">
         <v>410</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="6">
         <v>420</v>
       </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6">
         <v>400</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="6">
         <v>410</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="6">
         <v>420</v>
       </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6">
         <v>515</v>
       </c>
-      <c r="M13" s="10">
+      <c r="M13" s="6">
         <v>515</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6">
         <v>365</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="6">
         <v>410</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="6">
         <v>415</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="6">
         <v>430</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="6">
         <v>490</v>
       </c>
-      <c r="M14" s="10">
+      <c r="M14" s="6">
         <v>490</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6">
         <v>365</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="6">
         <v>410</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="6">
         <v>415</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="6">
         <v>430</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="6">
         <v>490</v>
       </c>
-      <c r="M15" s="10">
+      <c r="M15" s="6">
         <v>490</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="6">
+        <v>300</v>
+      </c>
+      <c r="D16" s="6">
+        <v>305</v>
+      </c>
+      <c r="E16" s="6">
+        <v>310</v>
+      </c>
+      <c r="F16" s="6">
+        <v>310</v>
+      </c>
+      <c r="G16" s="6">
+        <v>320</v>
+      </c>
+      <c r="H16" s="6">
+        <v>320</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="6">
+        <v>300</v>
+      </c>
+      <c r="D17" s="6">
+        <v>305</v>
+      </c>
+      <c r="E17" s="6">
+        <v>310</v>
+      </c>
+      <c r="F17" s="6">
+        <v>310</v>
+      </c>
+      <c r="G17" s="6">
+        <v>320</v>
+      </c>
+      <c r="H17" s="6">
+        <v>320</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6">
+        <v>400</v>
+      </c>
+      <c r="J18" s="6">
+        <v>410</v>
+      </c>
+      <c r="K18" s="6">
+        <v>420</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6">
+        <v>400</v>
+      </c>
+      <c r="J19" s="6">
+        <v>410</v>
+      </c>
+      <c r="K19" s="6">
+        <v>420</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C21" s="6">
         <v>6.3</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D21" s="6">
         <v>7.2</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E21" s="6">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F21" s="6">
         <v>10.8</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G21" s="6">
         <v>12.3</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H21" s="6">
         <v>14.8</v>
       </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C22" s="6">
         <v>6.3</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D22" s="6">
         <v>7.2</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E22" s="6">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F22" s="6">
         <v>10.8</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G22" s="6">
         <v>12.3</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H22" s="6">
         <v>14.8</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="6">
+        <v>6.8</v>
+      </c>
+      <c r="D23" s="6">
+        <v>7.7</v>
+      </c>
+      <c r="E23" s="6">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F23" s="6">
+        <v>11.3</v>
+      </c>
+      <c r="G23" s="6">
+        <v>12.8</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="6">
+        <v>6.8</v>
+      </c>
+      <c r="D24" s="6">
+        <v>7.7</v>
+      </c>
+      <c r="E24" s="6">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F24" s="6">
+        <v>11.3</v>
+      </c>
+      <c r="G24" s="6">
+        <v>12.8</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>23</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6">
+        <v>25</v>
+      </c>
+      <c r="J25" s="6">
+        <v>33</v>
+      </c>
+      <c r="K25" s="6">
+        <v>40</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>24</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6">
+        <v>25</v>
+      </c>
+      <c r="J26" s="6">
+        <v>33</v>
+      </c>
+      <c r="K26" s="6">
+        <v>40</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>25</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="10">
-        <v>6.8</v>
-      </c>
-      <c r="D19" s="10">
-        <v>7.7</v>
-      </c>
-      <c r="E19" s="10">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="F19" s="10">
-        <v>11.3</v>
-      </c>
-      <c r="G19" s="10">
-        <v>12.8</v>
-      </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6">
+        <v>55</v>
+      </c>
+      <c r="M27" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>26</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6">
+        <v>15.8</v>
+      </c>
+      <c r="I28" s="6">
+        <v>25.5</v>
+      </c>
+      <c r="J28" s="6">
+        <v>33.5</v>
+      </c>
+      <c r="K28" s="6">
+        <v>40.5</v>
+      </c>
+      <c r="L28" s="6">
+        <v>55.2</v>
+      </c>
+      <c r="M28" s="6">
+        <v>80.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>27</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6">
+        <v>15.8</v>
+      </c>
+      <c r="I29" s="6">
+        <v>25.5</v>
+      </c>
+      <c r="J29" s="6">
+        <v>33.5</v>
+      </c>
+      <c r="K29" s="6">
+        <v>40.5</v>
+      </c>
+      <c r="L29" s="6">
+        <v>55.2</v>
+      </c>
+      <c r="M29" s="6">
+        <v>80.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>28</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="10">
-        <v>6.8</v>
-      </c>
-      <c r="D20" s="10">
-        <v>7.7</v>
-      </c>
-      <c r="E20" s="10">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="F20" s="10">
-        <v>11.3</v>
-      </c>
-      <c r="G20" s="10">
-        <v>12.8</v>
-      </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="C30" s="6">
+        <v>6.3</v>
+      </c>
+      <c r="D30" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="E30" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F30" s="6">
+        <v>10.8</v>
+      </c>
+      <c r="G30" s="6">
+        <v>12.3</v>
+      </c>
+      <c r="H30" s="6">
+        <v>14.8</v>
+      </c>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>29</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10">
+      <c r="C31" s="6">
+        <v>6.3</v>
+      </c>
+      <c r="D31" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="E31" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F31" s="6">
+        <v>10.8</v>
+      </c>
+      <c r="G31" s="6">
+        <v>12.3</v>
+      </c>
+      <c r="H31" s="6">
+        <v>14.8</v>
+      </c>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>30</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6">
         <v>25</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J32" s="6">
         <v>33</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K32" s="6">
         <v>40</v>
       </c>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10">
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>31</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6">
         <v>25</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J33" s="6">
         <v>33</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K33" s="6">
         <v>40</v>
       </c>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10">
-        <v>55</v>
-      </c>
-      <c r="M23" s="10">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10">
-        <v>15.8</v>
-      </c>
-      <c r="I24" s="10">
-        <v>25.5</v>
-      </c>
-      <c r="J24" s="10">
-        <v>33.5</v>
-      </c>
-      <c r="K24" s="10">
-        <v>40.5</v>
-      </c>
-      <c r="L24" s="10">
-        <v>55.2</v>
-      </c>
-      <c r="M24" s="10">
-        <v>80.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10">
-        <v>15.8</v>
-      </c>
-      <c r="I25" s="10">
-        <v>25.5</v>
-      </c>
-      <c r="J25" s="10">
-        <v>33.5</v>
-      </c>
-      <c r="K25" s="10">
-        <v>40.5</v>
-      </c>
-      <c r="L25" s="10">
-        <v>55.2</v>
-      </c>
-      <c r="M25" s="10">
-        <v>80.2</v>
-      </c>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C2:M2"/>
     <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="B20:M20"/>
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TeplosilaWeb/Content/properties/gtrv3.xlsx
+++ b/TeplosilaWeb/Content/properties/gtrv3.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22451d98f477d1d3/Рабочий стол/RDT/TeplosilaWeb/Content/properties/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Документы\ТЗ программа подбора TRV, RDT\ТЗ клапаны TRV\27.04.2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68BFC5F4-B760-4F97-B9B3-725F11A00ED3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -55,18 +54,6 @@
     <t>TSL-2200-40-1R-230-IP67</t>
   </si>
   <si>
-    <t>TW1001-XD220-S.14</t>
-  </si>
-  <si>
-    <t>TW1001-XD24-S.14</t>
-  </si>
-  <si>
-    <t>TW3000-XD220-S.14</t>
-  </si>
-  <si>
-    <t>TW3000-XD24-S.14</t>
-  </si>
-  <si>
     <t>Высота клапана с приводом Н, мм:</t>
   </si>
   <si>
@@ -92,12 +79,24 @@
   </si>
   <si>
     <t>TSL-2200-40-1TR-230-IP67</t>
+  </si>
+  <si>
+    <t>TSL-1600-25-1A-24-IP67</t>
+  </si>
+  <si>
+    <t>TSL-2200-40-1A-24-IP67</t>
+  </si>
+  <si>
+    <t>TSL-3000-60-1A-24-IP67</t>
+  </si>
+  <si>
+    <t>TSL-6000-60-1-230-IP67</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -152,15 +151,21 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -192,11 +197,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -222,17 +264,41 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -513,58 +579,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-    </row>
-    <row r="2" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+    </row>
+    <row r="2" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="13"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -604,8 +672,11 @@
       <c r="M3" s="3">
         <v>150</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -645,8 +716,11 @@
       <c r="M4" s="1">
         <v>480</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -681,32 +755,36 @@
         <v>150</v>
       </c>
       <c r="L5" s="1">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="M5" s="1">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+      <c r="N5" s="1">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="20"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -736,8 +814,9 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -767,71 +846,72 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="6">
-        <v>330</v>
-      </c>
-      <c r="D9" s="6">
-        <v>340</v>
-      </c>
-      <c r="E9" s="6">
-        <v>345</v>
-      </c>
-      <c r="F9" s="6">
-        <v>347</v>
-      </c>
-      <c r="G9" s="6">
-        <v>355</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="10">
+        <v>300</v>
+      </c>
+      <c r="D9" s="10">
+        <v>305</v>
+      </c>
+      <c r="E9" s="10">
+        <v>310</v>
+      </c>
+      <c r="F9" s="10">
+        <v>310</v>
+      </c>
+      <c r="G9" s="10">
+        <v>320</v>
+      </c>
+      <c r="H9" s="10">
+        <v>320</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="6">
-        <v>330</v>
-      </c>
-      <c r="D10" s="6">
-        <v>340</v>
-      </c>
-      <c r="E10" s="6">
-        <v>345</v>
-      </c>
-      <c r="F10" s="6">
-        <v>347</v>
-      </c>
-      <c r="G10" s="6">
-        <v>355</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="I10" s="6">
+        <v>400</v>
+      </c>
+      <c r="J10" s="6">
+        <v>410</v>
+      </c>
+      <c r="K10" s="6">
+        <v>420</v>
+      </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -850,38 +930,40 @@
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6">
+      <c r="B12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10">
         <v>400</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="10">
         <v>410</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="10">
         <v>420</v>
       </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -896,77 +978,62 @@
         <v>515</v>
       </c>
       <c r="M13" s="6">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+        <v>530</v>
+      </c>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6">
-        <v>365</v>
-      </c>
-      <c r="I14" s="6">
-        <v>410</v>
-      </c>
-      <c r="J14" s="6">
-        <v>415</v>
-      </c>
-      <c r="K14" s="6">
-        <v>430</v>
-      </c>
-      <c r="L14" s="6">
-        <v>490</v>
-      </c>
-      <c r="M14" s="6">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10">
+        <v>515</v>
+      </c>
+      <c r="M14" s="10">
+        <v>530</v>
+      </c>
+      <c r="N14" s="10"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6">
-        <v>365</v>
-      </c>
-      <c r="I15" s="6">
-        <v>410</v>
-      </c>
-      <c r="J15" s="6">
-        <v>415</v>
-      </c>
-      <c r="K15" s="6">
-        <v>430</v>
-      </c>
-      <c r="L15" s="6">
-        <v>490</v>
-      </c>
-      <c r="M15" s="6">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C16" s="6">
         <v>300</v>
@@ -991,13 +1058,14 @@
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C17" s="6">
         <v>300</v>
@@ -1022,13 +1090,14 @@
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -1047,13 +1116,14 @@
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>17</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -1072,27 +1142,29 @@
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>18</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B20" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="17"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -1122,8 +1194,9 @@
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -1153,71 +1226,72 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>21</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="6">
-        <v>6.8</v>
-      </c>
-      <c r="D23" s="6">
-        <v>7.7</v>
-      </c>
-      <c r="E23" s="6">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="F23" s="6">
-        <v>11.3</v>
-      </c>
-      <c r="G23" s="6">
-        <v>12.8</v>
-      </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="10">
+        <v>6.3</v>
+      </c>
+      <c r="D23" s="10">
+        <v>7.2</v>
+      </c>
+      <c r="E23" s="10">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F23" s="10">
+        <v>10.8</v>
+      </c>
+      <c r="G23" s="10">
+        <v>12.3</v>
+      </c>
+      <c r="H23" s="10">
+        <v>14.8</v>
+      </c>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>22</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="6">
-        <v>6.8</v>
-      </c>
-      <c r="D24" s="6">
-        <v>7.7</v>
-      </c>
-      <c r="E24" s="6">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="F24" s="6">
-        <v>11.3</v>
-      </c>
-      <c r="G24" s="6">
-        <v>12.8</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
+      <c r="I24" s="6">
+        <v>25</v>
+      </c>
+      <c r="J24" s="6">
+        <v>33</v>
+      </c>
+      <c r="K24" s="6">
+        <v>40</v>
+      </c>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>23</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -1236,38 +1310,40 @@
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>24</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6">
+      <c r="B26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10">
         <v>25</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="10">
         <v>33</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="10">
         <v>40</v>
       </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>25</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1279,80 +1355,65 @@
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6">
-        <v>55</v>
+        <v>66.5</v>
       </c>
       <c r="M27" s="6">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+        <v>85.5</v>
+      </c>
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>26</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6">
-        <v>15.8</v>
-      </c>
-      <c r="I28" s="6">
-        <v>25.5</v>
-      </c>
-      <c r="J28" s="6">
-        <v>33.5</v>
-      </c>
-      <c r="K28" s="6">
-        <v>40.5</v>
-      </c>
-      <c r="L28" s="6">
-        <v>55.2</v>
-      </c>
-      <c r="M28" s="6">
-        <v>80.2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B28" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10">
+        <v>66.5</v>
+      </c>
+      <c r="M28" s="10">
+        <v>85.5</v>
+      </c>
+      <c r="N28" s="10"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>27</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6">
-        <v>15.8</v>
-      </c>
-      <c r="I29" s="6">
-        <v>25.5</v>
-      </c>
-      <c r="J29" s="6">
-        <v>33.5</v>
-      </c>
-      <c r="K29" s="6">
-        <v>40.5</v>
-      </c>
-      <c r="L29" s="6">
-        <v>55.2</v>
-      </c>
-      <c r="M29" s="6">
-        <v>80.2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B29" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10">
+        <v>133.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>28</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C30" s="6">
         <v>6.3</v>
@@ -1377,13 +1438,14 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>29</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C31" s="6">
         <v>6.3</v>
@@ -1408,13 +1470,14 @@
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>30</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -1433,13 +1496,14 @@
       </c>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>31</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -1458,13 +1522,14 @@
       </c>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C2:M2"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B20:M20"/>
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B20:N20"/>
+    <mergeCell ref="B6:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/properties/gtrv3.xlsx
+++ b/TeplosilaWeb/Content/properties/gtrv3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Документы\ТЗ программа подбора TRV, RDT\ТЗ клапаны TRV\27.04.2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pge27\OneDrive\Рабочий стол\TeploSilaWeb\TeplosilaWeb\Content\properties\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493A46A8-EFA3-48D4-819F-4853A34800D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>Наименование параметров,
 единицы измерения</t>
@@ -91,12 +92,18 @@
   </si>
   <si>
     <t>TSL-6000-60-1-230-IP67</t>
+  </si>
+  <si>
+    <t>TSL-1600-25-1-24-IP67</t>
+  </si>
+  <si>
+    <t>TSL-2200-40-1-24-IP67</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -270,6 +277,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -281,15 +297,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -579,11 +586,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,22 +600,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
     </row>
     <row r="2" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -617,20 +624,20 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="13"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="16"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
@@ -1148,140 +1155,140 @@
       <c r="A20" s="4">
         <v>18</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="17"/>
+      <c r="B20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="10">
+        <v>300</v>
+      </c>
+      <c r="D20" s="10">
+        <v>305</v>
+      </c>
+      <c r="E20" s="10">
+        <v>310</v>
+      </c>
+      <c r="F20" s="10">
+        <v>310</v>
+      </c>
+      <c r="G20" s="10">
+        <v>320</v>
+      </c>
+      <c r="H20" s="10">
+        <v>320</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>19</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="6">
-        <v>6.3</v>
-      </c>
-      <c r="D21" s="6">
-        <v>7.2</v>
-      </c>
-      <c r="E21" s="6">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="F21" s="6">
-        <v>10.8</v>
-      </c>
-      <c r="G21" s="6">
-        <v>12.3</v>
-      </c>
-      <c r="H21" s="6">
-        <v>14.8</v>
-      </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
+      <c r="B21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10">
+        <v>400</v>
+      </c>
+      <c r="J21" s="10">
+        <v>410</v>
+      </c>
+      <c r="K21" s="10">
+        <v>420</v>
+      </c>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="6">
-        <v>6.3</v>
-      </c>
-      <c r="D22" s="6">
-        <v>7.2</v>
-      </c>
-      <c r="E22" s="6">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="F22" s="6">
-        <v>10.8</v>
-      </c>
-      <c r="G22" s="6">
-        <v>12.3</v>
-      </c>
-      <c r="H22" s="6">
-        <v>14.8</v>
-      </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
+      <c r="B22" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="13"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>21</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="10">
+      <c r="B23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="6">
         <v>6.3</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="6">
         <v>7.2</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="6">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="6">
         <v>10.8</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="6">
         <v>12.3</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="6">
         <v>14.8</v>
       </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>22</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6">
-        <v>25</v>
-      </c>
-      <c r="J24" s="6">
-        <v>33</v>
-      </c>
-      <c r="K24" s="6">
-        <v>40</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C24" s="6">
+        <v>6.3</v>
+      </c>
+      <c r="D24" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="E24" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F24" s="6">
+        <v>10.8</v>
+      </c>
+      <c r="G24" s="6">
+        <v>12.3</v>
+      </c>
+      <c r="H24" s="6">
+        <v>14.8</v>
+      </c>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
@@ -1290,60 +1297,66 @@
       <c r="A25" s="4">
         <v>23</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6">
-        <v>25</v>
-      </c>
-      <c r="J25" s="6">
-        <v>33</v>
-      </c>
-      <c r="K25" s="6">
-        <v>40</v>
-      </c>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
+      <c r="B25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="10">
+        <v>6.3</v>
+      </c>
+      <c r="D25" s="10">
+        <v>7.2</v>
+      </c>
+      <c r="E25" s="10">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F25" s="10">
+        <v>10.8</v>
+      </c>
+      <c r="G25" s="10">
+        <v>12.3</v>
+      </c>
+      <c r="H25" s="10">
+        <v>14.8</v>
+      </c>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>24</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10">
+      <c r="B26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6">
         <v>25</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J26" s="6">
         <v>33</v>
       </c>
-      <c r="K26" s="10">
+      <c r="K26" s="6">
         <v>40</v>
       </c>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>25</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>13</v>
+      <c r="B27" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1351,15 +1364,17 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6">
-        <v>66.5</v>
-      </c>
-      <c r="M27" s="6">
-        <v>85.5</v>
-      </c>
+      <c r="I27" s="6">
+        <v>25</v>
+      </c>
+      <c r="J27" s="6">
+        <v>33</v>
+      </c>
+      <c r="K27" s="6">
+        <v>40</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
       <c r="N27" s="6"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -1367,7 +1382,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -1375,125 +1390,117 @@
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10">
-        <v>66.5</v>
-      </c>
-      <c r="M28" s="10">
-        <v>85.5</v>
-      </c>
+      <c r="I28" s="10">
+        <v>25</v>
+      </c>
+      <c r="J28" s="10">
+        <v>33</v>
+      </c>
+      <c r="K28" s="10">
+        <v>40</v>
+      </c>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
       <c r="N28" s="10"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>27</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10">
-        <v>133.5</v>
-      </c>
+      <c r="B29" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6">
+        <v>66.5</v>
+      </c>
+      <c r="M29" s="6">
+        <v>85.5</v>
+      </c>
+      <c r="N29" s="6"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>28</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="6">
-        <v>6.3</v>
-      </c>
-      <c r="D30" s="6">
-        <v>7.2</v>
-      </c>
-      <c r="E30" s="6">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="F30" s="6">
-        <v>10.8</v>
-      </c>
-      <c r="G30" s="6">
-        <v>12.3</v>
-      </c>
-      <c r="H30" s="6">
-        <v>14.8</v>
-      </c>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
+      <c r="B30" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10">
+        <v>66.5</v>
+      </c>
+      <c r="M30" s="10">
+        <v>85.5</v>
+      </c>
+      <c r="N30" s="10"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>29</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="6">
-        <v>6.3</v>
-      </c>
-      <c r="D31" s="6">
-        <v>7.2</v>
-      </c>
-      <c r="E31" s="6">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="F31" s="6">
-        <v>10.8</v>
-      </c>
-      <c r="G31" s="6">
-        <v>12.3</v>
-      </c>
-      <c r="H31" s="6">
-        <v>14.8</v>
-      </c>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
+      <c r="B31" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10">
+        <v>133.5</v>
+      </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>30</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6">
-        <v>25</v>
-      </c>
-      <c r="J32" s="6">
-        <v>33</v>
-      </c>
-      <c r="K32" s="6">
-        <v>40</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C32" s="6">
+        <v>6.3</v>
+      </c>
+      <c r="D32" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="E32" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F32" s="6">
+        <v>10.8</v>
+      </c>
+      <c r="G32" s="6">
+        <v>12.3</v>
+      </c>
+      <c r="H32" s="6">
+        <v>14.8</v>
+      </c>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
@@ -1503,32 +1510,147 @@
         <v>31</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6">
-        <v>25</v>
-      </c>
-      <c r="J33" s="6">
-        <v>33</v>
-      </c>
-      <c r="K33" s="6">
-        <v>40</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C33" s="6">
+        <v>6.3</v>
+      </c>
+      <c r="D33" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="E33" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F33" s="6">
+        <v>10.8</v>
+      </c>
+      <c r="G33" s="6">
+        <v>12.3</v>
+      </c>
+      <c r="H33" s="6">
+        <v>14.8</v>
+      </c>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
     </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>32</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6">
+        <v>25</v>
+      </c>
+      <c r="J34" s="6">
+        <v>33</v>
+      </c>
+      <c r="K34" s="6">
+        <v>40</v>
+      </c>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>33</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6">
+        <v>25</v>
+      </c>
+      <c r="J35" s="6">
+        <v>33</v>
+      </c>
+      <c r="K35" s="6">
+        <v>40</v>
+      </c>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>34</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="10">
+        <v>6.3</v>
+      </c>
+      <c r="D36" s="10">
+        <v>7.2</v>
+      </c>
+      <c r="E36" s="10">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F36" s="10">
+        <v>10.8</v>
+      </c>
+      <c r="G36" s="10">
+        <v>12.3</v>
+      </c>
+      <c r="H36" s="10">
+        <v>14.8</v>
+      </c>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>35</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10">
+        <v>25</v>
+      </c>
+      <c r="J37" s="10">
+        <v>33</v>
+      </c>
+      <c r="K37" s="10">
+        <v>40</v>
+      </c>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="C2:N2"/>
     <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B20:N20"/>
     <mergeCell ref="B6:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TeplosilaWeb/Content/properties/gtrv3.xlsx
+++ b/TeplosilaWeb/Content/properties/gtrv3.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pge27\OneDrive\Рабочий стол\TeploSilaWeb\TeplosilaWeb\Content\properties\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Документы\ТЗ программа подбора TRV, RDT\ТЗ клапаны TRV\04.08.2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C8E3FC7-54F4-4A20-889B-A0F39C4D12BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>Наименование параметров,
 единицы измерения</t>
@@ -67,16 +66,19 @@
     <t>TSL-1600-25-1TR-230-IP67</t>
   </si>
   <si>
-    <t>TSL-1600-25-1A-24-IP67</t>
-  </si>
-  <si>
     <t>TSL-1600-25-1-24-IP67</t>
+  </si>
+  <si>
+    <t>TSL-1600-25-2A-24-IP67</t>
+  </si>
+  <si>
+    <t>TSL-1600-25-2A-230-IP67</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -124,12 +126,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -196,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -256,6 +264,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -537,11 +554,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="A1:H19"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,7 +744,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="5">
         <v>315</v>
@@ -752,8 +769,8 @@
       <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>13</v>
+      <c r="B10" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="C10" s="5">
         <v>315</v>
@@ -775,28 +792,28 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="22">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="B11" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="23">
         <v>315</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="23">
         <v>320</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="23">
         <v>325</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="23">
         <v>330</v>
       </c>
-      <c r="G11" s="5">
-        <v>335</v>
-      </c>
-      <c r="H11" s="5">
+      <c r="G11" s="23">
+        <v>335</v>
+      </c>
+      <c r="H11" s="23">
         <v>335</v>
       </c>
     </row>
@@ -805,7 +822,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="5">
         <v>315</v>
@@ -830,48 +847,48 @@
       <c r="A13" s="7">
         <v>11</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
+      <c r="B13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5">
+        <v>315</v>
+      </c>
+      <c r="D13" s="5">
+        <v>320</v>
+      </c>
+      <c r="E13" s="5">
+        <v>325</v>
+      </c>
+      <c r="F13" s="5">
+        <v>330</v>
+      </c>
+      <c r="G13" s="5">
+        <v>335</v>
+      </c>
+      <c r="H13" s="5">
+        <v>335</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="5">
-        <v>6.3</v>
-      </c>
-      <c r="D14" s="5">
-        <v>7.2</v>
-      </c>
-      <c r="E14" s="5">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="F14" s="5">
-        <v>10.8</v>
-      </c>
-      <c r="G14" s="5">
-        <v>12.3</v>
-      </c>
-      <c r="H14" s="5">
-        <v>14.8</v>
-      </c>
+      <c r="B14" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" s="5">
         <v>6.3</v>
@@ -896,8 +913,8 @@
       <c r="A16" s="7">
         <v>14</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>14</v>
+      <c r="B16" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C16" s="5">
         <v>6.3</v>
@@ -948,8 +965,8 @@
       <c r="A18" s="7">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>11</v>
+      <c r="B18" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="C18" s="5">
         <v>6.3</v>
@@ -971,28 +988,80 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="A19" s="22">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="23">
+        <v>6.3</v>
+      </c>
+      <c r="D19" s="23">
+        <v>7.2</v>
+      </c>
+      <c r="E19" s="23">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F19" s="23">
+        <v>10.8</v>
+      </c>
+      <c r="G19" s="23">
+        <v>12.3</v>
+      </c>
+      <c r="H19" s="23">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="5">
+        <v>6.3</v>
+      </c>
+      <c r="D20" s="5">
+        <v>7.2</v>
+      </c>
+      <c r="E20" s="5">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F20" s="5">
+        <v>10.8</v>
+      </c>
+      <c r="G20" s="5">
+        <v>12.3</v>
+      </c>
+      <c r="H20" s="5">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>19</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C21" s="5">
         <v>6.3</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D21" s="5">
         <v>7.2</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E21" s="5">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F21" s="5">
         <v>10.8</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G21" s="5">
         <v>12.3</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H21" s="5">
         <v>14.8</v>
       </c>
     </row>
@@ -1000,7 +1069,7 @@
   <mergeCells count="4">
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TeplosilaWeb/Content/properties/gtrv3.xlsx
+++ b/TeplosilaWeb/Content/properties/gtrv3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Документы\ТЗ программа подбора TRV, RDT\ТЗ клапаны TRV\04.08.2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Документы\ТЗ программа подбора TRV, RDT\ТЗ клапаны TRV\10.04.2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Наименование параметров,
 единицы измерения</t>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>TSL-1600-25-2A-230-IP67</t>
+  </si>
+  <si>
+    <t>TSL-1600-25-2AR-24-IP67</t>
+  </si>
+  <si>
+    <t>TSL-1600-25-2AR-230-IP67</t>
   </si>
 </sst>
 </file>
@@ -257,20 +263,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -555,7 +561,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:H1"/>
@@ -769,8 +775,8 @@
       <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>14</v>
+      <c r="B10" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C10" s="5">
         <v>315</v>
@@ -792,28 +798,28 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="23">
+      <c r="B11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5">
         <v>315</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="5">
         <v>320</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="5">
         <v>325</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="5">
         <v>330</v>
       </c>
-      <c r="G11" s="23">
-        <v>335</v>
-      </c>
-      <c r="H11" s="23">
+      <c r="G11" s="5">
+        <v>335</v>
+      </c>
+      <c r="H11" s="5">
         <v>335</v>
       </c>
     </row>
@@ -821,8 +827,8 @@
       <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>11</v>
+      <c r="B12" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="C12" s="5">
         <v>315</v>
@@ -844,28 +850,28 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="21">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="5">
+      <c r="B13" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="23">
         <v>315</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="23">
         <v>320</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="23">
         <v>325</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="23">
         <v>330</v>
       </c>
-      <c r="G13" s="5">
-        <v>335</v>
-      </c>
-      <c r="H13" s="5">
+      <c r="G13" s="23">
+        <v>335</v>
+      </c>
+      <c r="H13" s="23">
         <v>335</v>
       </c>
     </row>
@@ -873,74 +879,74 @@
       <c r="A14" s="7">
         <v>12</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17"/>
+      <c r="B14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="5">
+        <v>315</v>
+      </c>
+      <c r="D14" s="5">
+        <v>320</v>
+      </c>
+      <c r="E14" s="5">
+        <v>325</v>
+      </c>
+      <c r="F14" s="5">
+        <v>330</v>
+      </c>
+      <c r="G14" s="5">
+        <v>335</v>
+      </c>
+      <c r="H14" s="5">
+        <v>335</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="21">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="5">
-        <v>6.3</v>
-      </c>
-      <c r="D15" s="5">
-        <v>7.2</v>
-      </c>
-      <c r="E15" s="5">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="F15" s="5">
-        <v>10.8</v>
-      </c>
-      <c r="G15" s="5">
-        <v>12.3</v>
-      </c>
-      <c r="H15" s="5">
-        <v>14.8</v>
+      <c r="B15" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="23">
+        <v>315</v>
+      </c>
+      <c r="D15" s="23">
+        <v>320</v>
+      </c>
+      <c r="E15" s="23">
+        <v>325</v>
+      </c>
+      <c r="F15" s="23">
+        <v>330</v>
+      </c>
+      <c r="G15" s="23">
+        <v>335</v>
+      </c>
+      <c r="H15" s="23">
+        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="5">
-        <v>6.3</v>
-      </c>
-      <c r="D16" s="5">
-        <v>7.2</v>
-      </c>
-      <c r="E16" s="5">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="F16" s="5">
-        <v>10.8</v>
-      </c>
-      <c r="G16" s="5">
-        <v>12.3</v>
-      </c>
-      <c r="H16" s="5">
-        <v>14.8</v>
-      </c>
+      <c r="B16" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>15</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>13</v>
+      <c r="B17" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C17" s="5">
         <v>6.3</v>
@@ -965,8 +971,8 @@
       <c r="A18" s="7">
         <v>16</v>
       </c>
-      <c r="B18" s="21" t="s">
-        <v>14</v>
+      <c r="B18" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C18" s="5">
         <v>6.3</v>
@@ -988,28 +994,28 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="22">
+      <c r="A19" s="7">
         <v>17</v>
       </c>
-      <c r="B19" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="23">
+      <c r="B19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="5">
         <v>6.3</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="5">
         <v>7.2</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="5">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="5">
         <v>10.8</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="5">
         <v>12.3</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="5">
         <v>14.8</v>
       </c>
     </row>
@@ -1062,6 +1068,110 @@
         <v>12.3</v>
       </c>
       <c r="H21" s="5">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>20</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="5">
+        <v>6.3</v>
+      </c>
+      <c r="D22" s="5">
+        <v>7.2</v>
+      </c>
+      <c r="E22" s="5">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F22" s="5">
+        <v>10.8</v>
+      </c>
+      <c r="G22" s="5">
+        <v>12.3</v>
+      </c>
+      <c r="H22" s="5">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="21">
+        <v>21</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="23">
+        <v>6.3</v>
+      </c>
+      <c r="D23" s="23">
+        <v>7.2</v>
+      </c>
+      <c r="E23" s="23">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F23" s="23">
+        <v>10.8</v>
+      </c>
+      <c r="G23" s="23">
+        <v>12.3</v>
+      </c>
+      <c r="H23" s="23">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>22</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="5">
+        <v>6.3</v>
+      </c>
+      <c r="D24" s="5">
+        <v>7.2</v>
+      </c>
+      <c r="E24" s="5">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F24" s="5">
+        <v>10.8</v>
+      </c>
+      <c r="G24" s="5">
+        <v>12.3</v>
+      </c>
+      <c r="H24" s="5">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="21">
+        <v>23</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="23">
+        <v>6.3</v>
+      </c>
+      <c r="D25" s="23">
+        <v>7.2</v>
+      </c>
+      <c r="E25" s="23">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F25" s="23">
+        <v>10.8</v>
+      </c>
+      <c r="G25" s="23">
+        <v>12.3</v>
+      </c>
+      <c r="H25" s="23">
         <v>14.8</v>
       </c>
     </row>
@@ -1069,7 +1179,7 @@
   <mergeCells count="4">
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B16:H16"/>
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TeplosilaWeb/Content/properties/gtrv3.xlsx
+++ b/TeplosilaWeb/Content/properties/gtrv3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Документы\ТЗ программа подбора TRV, RDT\ТЗ клапаны TRV\10.04.2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pge27\OneDrive\Рабочий стол\TeploSilaWeb\TeplosilaWeb\Content\properties\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68BF3A10-E655-4524-88DC-30DFE6EF0184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="3690" yWindow="4530" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -66,9 +67,6 @@
     <t>TSL-1600-25-1TR-230-IP67</t>
   </si>
   <si>
-    <t>TSL-1600-25-1-24-IP67</t>
-  </si>
-  <si>
     <t>TSL-1600-25-2A-24-IP67</t>
   </si>
   <si>
@@ -79,12 +77,15 @@
   </si>
   <si>
     <t>TSL-1600-25-2AR-230-IP67</t>
+  </si>
+  <si>
+    <t>TSL-1600-25-2-24-IP67</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -212,27 +213,36 @@
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -270,15 +280,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -560,7 +561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -574,604 +575,604 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="7">
         <v>15</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="7">
         <v>20</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="7">
         <v>25</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="7">
         <v>32</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="7">
         <v>40</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="7">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="8">
         <v>130</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="8">
         <v>150</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="8">
         <v>160</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="8">
         <v>180</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="8">
         <v>200</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="8">
         <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="8">
         <v>65</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="8">
         <v>70</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="8">
         <v>75</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="8">
         <v>95</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="8">
         <v>100</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="8">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="10">
         <v>315</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="10">
         <v>320</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="10">
         <v>325</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="10">
         <v>330</v>
       </c>
-      <c r="G7" s="5">
-        <v>335</v>
-      </c>
-      <c r="H7" s="5">
+      <c r="G7" s="10">
+        <v>335</v>
+      </c>
+      <c r="H7" s="10">
         <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="10">
         <v>315</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="10">
         <v>320</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="10">
         <v>325</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="10">
         <v>330</v>
       </c>
-      <c r="G8" s="5">
-        <v>335</v>
-      </c>
-      <c r="H8" s="5">
+      <c r="G8" s="10">
+        <v>335</v>
+      </c>
+      <c r="H8" s="10">
         <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3">
+        <v>315</v>
+      </c>
+      <c r="D9" s="3">
+        <v>320</v>
+      </c>
+      <c r="E9" s="3">
+        <v>325</v>
+      </c>
+      <c r="F9" s="3">
+        <v>330</v>
+      </c>
+      <c r="G9" s="3">
+        <v>335</v>
+      </c>
+      <c r="H9" s="3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="10">
+        <v>315</v>
+      </c>
+      <c r="D10" s="10">
+        <v>320</v>
+      </c>
+      <c r="E10" s="10">
+        <v>325</v>
+      </c>
+      <c r="F10" s="10">
+        <v>330</v>
+      </c>
+      <c r="G10" s="10">
+        <v>335</v>
+      </c>
+      <c r="H10" s="10">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="10">
+        <v>315</v>
+      </c>
+      <c r="D11" s="10">
+        <v>320</v>
+      </c>
+      <c r="E11" s="10">
+        <v>325</v>
+      </c>
+      <c r="F11" s="10">
+        <v>330</v>
+      </c>
+      <c r="G11" s="10">
+        <v>335</v>
+      </c>
+      <c r="H11" s="10">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="10">
+        <v>315</v>
+      </c>
+      <c r="D12" s="10">
+        <v>320</v>
+      </c>
+      <c r="E12" s="10">
+        <v>325</v>
+      </c>
+      <c r="F12" s="10">
+        <v>330</v>
+      </c>
+      <c r="G12" s="10">
+        <v>335</v>
+      </c>
+      <c r="H12" s="10">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="10">
+        <v>315</v>
+      </c>
+      <c r="D13" s="10">
+        <v>320</v>
+      </c>
+      <c r="E13" s="10">
+        <v>325</v>
+      </c>
+      <c r="F13" s="10">
+        <v>330</v>
+      </c>
+      <c r="G13" s="10">
+        <v>335</v>
+      </c>
+      <c r="H13" s="10">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C14" s="10">
         <v>315</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D14" s="10">
         <v>320</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E14" s="10">
         <v>325</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F14" s="10">
         <v>330</v>
       </c>
-      <c r="G9" s="5">
-        <v>335</v>
-      </c>
-      <c r="H9" s="5">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="G14" s="10">
+        <v>335</v>
+      </c>
+      <c r="H14" s="10">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="10">
+        <v>315</v>
+      </c>
+      <c r="D15" s="10">
+        <v>320</v>
+      </c>
+      <c r="E15" s="10">
+        <v>325</v>
+      </c>
+      <c r="F15" s="10">
+        <v>330</v>
+      </c>
+      <c r="G15" s="10">
+        <v>335</v>
+      </c>
+      <c r="H15" s="10">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="10">
+        <v>6.3</v>
+      </c>
+      <c r="D17" s="10">
+        <v>7.2</v>
+      </c>
+      <c r="E17" s="10">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F17" s="10">
+        <v>10.8</v>
+      </c>
+      <c r="G17" s="10">
+        <v>12.3</v>
+      </c>
+      <c r="H17" s="10">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="10">
+        <v>6.3</v>
+      </c>
+      <c r="D18" s="10">
+        <v>7.2</v>
+      </c>
+      <c r="E18" s="10">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F18" s="10">
+        <v>10.8</v>
+      </c>
+      <c r="G18" s="10">
+        <v>12.3</v>
+      </c>
+      <c r="H18" s="10">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="D19" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F19" s="3">
+        <v>10.8</v>
+      </c>
+      <c r="G19" s="3">
+        <v>12.3</v>
+      </c>
+      <c r="H19" s="3">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="5">
-        <v>315</v>
-      </c>
-      <c r="D10" s="5">
-        <v>320</v>
-      </c>
-      <c r="E10" s="5">
-        <v>325</v>
-      </c>
-      <c r="F10" s="5">
-        <v>330</v>
-      </c>
-      <c r="G10" s="5">
-        <v>335</v>
-      </c>
-      <c r="H10" s="5">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>9</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="C20" s="10">
+        <v>6.3</v>
+      </c>
+      <c r="D20" s="10">
+        <v>7.2</v>
+      </c>
+      <c r="E20" s="10">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F20" s="10">
+        <v>10.8</v>
+      </c>
+      <c r="G20" s="10">
+        <v>12.3</v>
+      </c>
+      <c r="H20" s="10">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="5">
-        <v>315</v>
-      </c>
-      <c r="D11" s="5">
-        <v>320</v>
-      </c>
-      <c r="E11" s="5">
-        <v>325</v>
-      </c>
-      <c r="F11" s="5">
-        <v>330</v>
-      </c>
-      <c r="G11" s="5">
-        <v>335</v>
-      </c>
-      <c r="H11" s="5">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>10</v>
-      </c>
-      <c r="B12" s="8" t="s">
+      <c r="C21" s="10">
+        <v>6.3</v>
+      </c>
+      <c r="D21" s="10">
+        <v>7.2</v>
+      </c>
+      <c r="E21" s="10">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F21" s="10">
+        <v>10.8</v>
+      </c>
+      <c r="G21" s="10">
+        <v>12.3</v>
+      </c>
+      <c r="H21" s="10">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>20</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="10">
+        <v>6.3</v>
+      </c>
+      <c r="D22" s="10">
+        <v>7.2</v>
+      </c>
+      <c r="E22" s="10">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F22" s="10">
+        <v>10.8</v>
+      </c>
+      <c r="G22" s="10">
+        <v>12.3</v>
+      </c>
+      <c r="H22" s="10">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>21</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="10">
+        <v>6.3</v>
+      </c>
+      <c r="D23" s="10">
+        <v>7.2</v>
+      </c>
+      <c r="E23" s="10">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F23" s="10">
+        <v>10.8</v>
+      </c>
+      <c r="G23" s="10">
+        <v>12.3</v>
+      </c>
+      <c r="H23" s="10">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>22</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="10">
+        <v>6.3</v>
+      </c>
+      <c r="D24" s="10">
+        <v>7.2</v>
+      </c>
+      <c r="E24" s="10">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F24" s="10">
+        <v>10.8</v>
+      </c>
+      <c r="G24" s="10">
+        <v>12.3</v>
+      </c>
+      <c r="H24" s="10">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>23</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="5">
-        <v>315</v>
-      </c>
-      <c r="D12" s="5">
-        <v>320</v>
-      </c>
-      <c r="E12" s="5">
-        <v>325</v>
-      </c>
-      <c r="F12" s="5">
-        <v>330</v>
-      </c>
-      <c r="G12" s="5">
-        <v>335</v>
-      </c>
-      <c r="H12" s="5">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="21">
-        <v>11</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="23">
-        <v>315</v>
-      </c>
-      <c r="D13" s="23">
-        <v>320</v>
-      </c>
-      <c r="E13" s="23">
-        <v>325</v>
-      </c>
-      <c r="F13" s="23">
-        <v>330</v>
-      </c>
-      <c r="G13" s="23">
-        <v>335</v>
-      </c>
-      <c r="H13" s="23">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>12</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="5">
-        <v>315</v>
-      </c>
-      <c r="D14" s="5">
-        <v>320</v>
-      </c>
-      <c r="E14" s="5">
-        <v>325</v>
-      </c>
-      <c r="F14" s="5">
-        <v>330</v>
-      </c>
-      <c r="G14" s="5">
-        <v>335</v>
-      </c>
-      <c r="H14" s="5">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="21">
-        <v>13</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="23">
-        <v>315</v>
-      </c>
-      <c r="D15" s="23">
-        <v>320</v>
-      </c>
-      <c r="E15" s="23">
-        <v>325</v>
-      </c>
-      <c r="F15" s="23">
-        <v>330</v>
-      </c>
-      <c r="G15" s="23">
-        <v>335</v>
-      </c>
-      <c r="H15" s="23">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>14</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="17"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>15</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="5">
+      <c r="C25" s="10">
         <v>6.3</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D25" s="10">
         <v>7.2</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E25" s="10">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F25" s="10">
         <v>10.8</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G25" s="10">
         <v>12.3</v>
       </c>
-      <c r="H17" s="5">
-        <v>14.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>16</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="5">
-        <v>6.3</v>
-      </c>
-      <c r="D18" s="5">
-        <v>7.2</v>
-      </c>
-      <c r="E18" s="5">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="F18" s="5">
-        <v>10.8</v>
-      </c>
-      <c r="G18" s="5">
-        <v>12.3</v>
-      </c>
-      <c r="H18" s="5">
-        <v>14.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>17</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="5">
-        <v>6.3</v>
-      </c>
-      <c r="D19" s="5">
-        <v>7.2</v>
-      </c>
-      <c r="E19" s="5">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="F19" s="5">
-        <v>10.8</v>
-      </c>
-      <c r="G19" s="5">
-        <v>12.3</v>
-      </c>
-      <c r="H19" s="5">
-        <v>14.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>18</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="5">
-        <v>6.3</v>
-      </c>
-      <c r="D20" s="5">
-        <v>7.2</v>
-      </c>
-      <c r="E20" s="5">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="F20" s="5">
-        <v>10.8</v>
-      </c>
-      <c r="G20" s="5">
-        <v>12.3</v>
-      </c>
-      <c r="H20" s="5">
-        <v>14.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <v>19</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="5">
-        <v>6.3</v>
-      </c>
-      <c r="D21" s="5">
-        <v>7.2</v>
-      </c>
-      <c r="E21" s="5">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="F21" s="5">
-        <v>10.8</v>
-      </c>
-      <c r="G21" s="5">
-        <v>12.3</v>
-      </c>
-      <c r="H21" s="5">
-        <v>14.8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>20</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="5">
-        <v>6.3</v>
-      </c>
-      <c r="D22" s="5">
-        <v>7.2</v>
-      </c>
-      <c r="E22" s="5">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="F22" s="5">
-        <v>10.8</v>
-      </c>
-      <c r="G22" s="5">
-        <v>12.3</v>
-      </c>
-      <c r="H22" s="5">
-        <v>14.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="21">
-        <v>21</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="23">
-        <v>6.3</v>
-      </c>
-      <c r="D23" s="23">
-        <v>7.2</v>
-      </c>
-      <c r="E23" s="23">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="F23" s="23">
-        <v>10.8</v>
-      </c>
-      <c r="G23" s="23">
-        <v>12.3</v>
-      </c>
-      <c r="H23" s="23">
-        <v>14.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
-        <v>22</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="5">
-        <v>6.3</v>
-      </c>
-      <c r="D24" s="5">
-        <v>7.2</v>
-      </c>
-      <c r="E24" s="5">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="F24" s="5">
-        <v>10.8</v>
-      </c>
-      <c r="G24" s="5">
-        <v>12.3</v>
-      </c>
-      <c r="H24" s="5">
-        <v>14.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="21">
-        <v>23</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="23">
-        <v>6.3</v>
-      </c>
-      <c r="D25" s="23">
-        <v>7.2</v>
-      </c>
-      <c r="E25" s="23">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="F25" s="23">
-        <v>10.8</v>
-      </c>
-      <c r="G25" s="23">
-        <v>12.3</v>
-      </c>
-      <c r="H25" s="23">
+      <c r="H25" s="10">
         <v>14.8</v>
       </c>
     </row>

--- a/TeplosilaWeb/Content/properties/gtrv3.xlsx
+++ b/TeplosilaWeb/Content/properties/gtrv3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Документы\ТЗ программа подбора TRV, RDT\ТЗ клапаны TRV\10.02.2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pge27\OneDrive\Рабочий стол\TeploSilaWeb\TeplosilaWeb\Content\properties\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54C6283-24B8-4D22-A980-B45904993D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2368222-CA30-4E7F-9F10-3593D10AD610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12885" yWindow="750" windowWidth="15900" windowHeight="13890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -266,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -293,16 +296,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -313,6 +310,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -594,60 +600,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N63"/>
+  <dimension ref="A1:O63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" customWidth="1"/>
     <col min="2" max="2" width="25.42578125" style="9" customWidth="1"/>
-    <col min="3" max="14" width="9.140625" style="9"/>
+    <col min="3" max="15" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-    </row>
-    <row r="2" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1"/>
+    </row>
+    <row r="2" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="12"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="17"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -690,8 +698,11 @@
       <c r="N3" s="4">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" s="4">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -734,8 +745,11 @@
       <c r="N4" s="7">
         <v>495</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -776,30 +790,34 @@
         <v>240</v>
       </c>
       <c r="N5" s="7">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="O5" s="7">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="16"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="14"/>
+      <c r="O6"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -830,8 +848,9 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -862,8 +881,9 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -894,8 +914,9 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -926,8 +947,9 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -958,8 +980,9 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -990,8 +1013,9 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1022,8 +1046,9 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1054,8 +1079,9 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1086,8 +1112,9 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -1118,8 +1145,9 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -1150,8 +1178,9 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -1176,8 +1205,9 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" s="5"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1202,8 +1232,9 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" s="5"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1228,8 +1259,9 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20" s="5"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -1254,8 +1286,9 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21" s="5"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -1280,8 +1313,9 @@
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" s="5"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -1306,8 +1340,9 @@
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23" s="5"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -1332,8 +1367,9 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24" s="5"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -1358,8 +1394,9 @@
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25" s="5"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -1384,8 +1421,9 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26" s="5"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -1410,8 +1448,9 @@
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O27" s="5"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -1436,8 +1475,9 @@
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O28" s="5"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -1460,8 +1500,9 @@
         <v>540</v>
       </c>
       <c r="N29" s="5"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O29" s="5"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -1484,8 +1525,9 @@
         <v>540</v>
       </c>
       <c r="N30" s="5"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O30" s="5"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -1508,8 +1550,9 @@
         <v>540</v>
       </c>
       <c r="N31" s="5"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O31" s="5"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -1532,8 +1575,9 @@
         <v>540</v>
       </c>
       <c r="N32" s="5"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O32" s="5"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -1556,10 +1600,13 @@
         <v>570</v>
       </c>
       <c r="N33" s="5">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+      <c r="O33" s="5">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -1578,30 +1625,34 @@
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="O34" s="5">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="16"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="14"/>
+      <c r="O35"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -1632,8 +1683,9 @@
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O36" s="5"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -1664,8 +1716,9 @@
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O37" s="5"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -1696,8 +1749,9 @@
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O38" s="5"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -1728,8 +1782,9 @@
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O39" s="5"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -1760,8 +1815,9 @@
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O40" s="5"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -1792,8 +1848,9 @@
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O41" s="5"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -1824,8 +1881,9 @@
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O42" s="5"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -1856,8 +1914,9 @@
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O43" s="5"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -1888,8 +1947,9 @@
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O44" s="5"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -1920,8 +1980,9 @@
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O45" s="5"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -1952,8 +2013,9 @@
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O46" s="5"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -1978,8 +2040,9 @@
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O47" s="5"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -2004,8 +2067,9 @@
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O48" s="5"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -2030,8 +2094,9 @@
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O49" s="5"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>48</v>
       </c>
@@ -2056,8 +2121,9 @@
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O50" s="5"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -2082,8 +2148,9 @@
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O51" s="5"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>50</v>
       </c>
@@ -2108,8 +2175,9 @@
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>51</v>
       </c>
@@ -2134,8 +2202,9 @@
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O53" s="5"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>52</v>
       </c>
@@ -2160,8 +2229,9 @@
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O54" s="5"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>53</v>
       </c>
@@ -2186,8 +2256,9 @@
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O55" s="5"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>54</v>
       </c>
@@ -2212,8 +2283,9 @@
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O56" s="5"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>55</v>
       </c>
@@ -2238,8 +2310,9 @@
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O57" s="5"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>56</v>
       </c>
@@ -2262,8 +2335,9 @@
         <v>55.8</v>
       </c>
       <c r="N58" s="5"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O58" s="5"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>57</v>
       </c>
@@ -2286,8 +2360,9 @@
         <v>55.8</v>
       </c>
       <c r="N59" s="5"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O59" s="5"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>58</v>
       </c>
@@ -2310,8 +2385,9 @@
         <v>55.8</v>
       </c>
       <c r="N60" s="5"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O60" s="5"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>59</v>
       </c>
@@ -2334,8 +2410,9 @@
         <v>55.8</v>
       </c>
       <c r="N61" s="5"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O61" s="5"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>60</v>
       </c>
@@ -2358,10 +2435,13 @@
         <v>56.8</v>
       </c>
       <c r="N62" s="5">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="O62" s="5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>61</v>
       </c>
@@ -2380,15 +2460,18 @@
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
       <c r="N63" s="5">
-        <v>85.2</v>
+        <v>68</v>
+      </c>
+      <c r="O63" s="5">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C2:N2"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B35:N35"/>
     <mergeCell ref="B6:N6"/>
+    <mergeCell ref="C2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
